--- a/Docs/Power_Module_BOM.xlsx
+++ b/Docs/Power_Module_BOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\simon\EEE3088F\EEE3088F-Group-3\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UCT\EEE3088F\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F584DD3-9752-4333-88EF-00EB47DE6D64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C215F61-8D27-46E0-991D-EF903B577069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sensor Module" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
   <si>
     <t>MANUFACTURER PART NO.</t>
   </si>
@@ -68,24 +68,12 @@
     <t>PRICE FIVE BOARDS EXTENDED ($)</t>
   </si>
   <si>
-    <t>CL05B104KO5NNNC</t>
-  </si>
-  <si>
-    <t>https://jlcpcb.com/partdetail/1877-CL05B104KO5NNNC/C1525</t>
-  </si>
-  <si>
-    <t>0.1u</t>
-  </si>
-  <si>
     <t>TAJA106K016RNJ</t>
   </si>
   <si>
     <t>https://jlcpcb.com/partdetail/KyoceraAvx-TAJA106K016RNJ/C7171</t>
   </si>
   <si>
-    <t>C4</t>
-  </si>
-  <si>
     <t>10uF</t>
   </si>
   <si>
@@ -120,9 +108,6 @@
   </si>
   <si>
     <t>U2</t>
-  </si>
-  <si>
-    <t>U3</t>
   </si>
   <si>
     <t>SENSOR MODULE TOTALS</t>
@@ -162,52 +147,6 @@
     <t>TP4056</t>
   </si>
   <si>
-    <t xml:space="preserve">
-LM1117S-3.3</t>
-  </si>
-  <si>
-    <t>https://jlcpcb.com/partdetail/Htc_Korea_TaejinTech-LM1117S_33/C126027</t>
-  </si>
-  <si>
-    <t>LM117-3.3</t>
-  </si>
-  <si>
-    <t>OP07CDR</t>
-  </si>
-  <si>
-    <t>https://jlcpcb.com/partdetail/TexasInstruments-OP07CDR/C7433</t>
-  </si>
-  <si>
-    <t>U4</t>
-  </si>
-  <si>
-    <t>OP07</t>
-  </si>
-  <si>
-    <t>HT7733BA</t>
-  </si>
-  <si>
-    <t>https://jlcpcb.com/partdetail/HoltekSemicon-HT7733BA/C259894</t>
-  </si>
-  <si>
-    <t>HT77xxBA</t>
-  </si>
-  <si>
-    <t>C1, C2, C3</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>CL21A226MAQNNNE</t>
-  </si>
-  <si>
-    <t>22u</t>
-  </si>
-  <si>
-    <t>https://jlcpcb.com/partdetail/46786-CL21A226MAQNNNE/C45783</t>
-  </si>
-  <si>
     <t>LED1</t>
   </si>
   <si>
@@ -223,50 +162,64 @@
     <t>https://jlcpcb.com/partdetail/Hubei_KentoElec-C2297/C2297</t>
   </si>
   <si>
-    <t>1N5819WS</t>
-  </si>
-  <si>
-    <t>https://jlcpcb.com/partdetail/GuangdongHottech-1N5819WS/C191023</t>
-  </si>
-  <si>
-    <t>D1, D2</t>
-  </si>
-  <si>
-    <t>1N5819</t>
-  </si>
-  <si>
-    <t>L1</t>
-  </si>
-  <si>
     <t>https://jlcpcb.com/partdetail/Lrc-LBSS84LT1G/C8492</t>
   </si>
   <si>
-    <t>LBSS84LT1G</t>
-  </si>
-  <si>
-    <t>Q_MOS_SDG</t>
-  </si>
-  <si>
-    <t>R1, R2, R9, R8, R7</t>
-  </si>
-  <si>
-    <t>R3, R4, R5, R6, R10</t>
-  </si>
-  <si>
-    <t>47u</t>
-  </si>
-  <si>
-    <t>https://jlcpcb.com/partdetail/Sunlord-SDFL2012T220KTF/C32375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-SDFL2012T220KTF</t>
-  </si>
-  <si>
-    <t>Q1</t>
-  </si>
-  <si>
     <t>"Each extended component adds an extra 3$"</t>
+  </si>
+  <si>
+    <t>C1, C2, C3, C4</t>
+  </si>
+  <si>
+    <t>R1, R2</t>
+  </si>
+  <si>
+    <t>0k</t>
+  </si>
+  <si>
+    <t>R4, R5, R6, R7</t>
+  </si>
+  <si>
+    <t>LM2937L-33-TQ2-R</t>
+  </si>
+  <si>
+    <t>LM2937xMP</t>
+  </si>
+  <si>
+    <t>BH-18650-B1BA002</t>
+  </si>
+  <si>
+    <t>BT1</t>
+  </si>
+  <si>
+    <t>18650</t>
+  </si>
+  <si>
+    <t>JLCB Part No</t>
+  </si>
+  <si>
+    <t>C7171</t>
+  </si>
+  <si>
+    <t>C2286</t>
+  </si>
+  <si>
+    <t>C17414</t>
+  </si>
+  <si>
+    <t>C22764</t>
+  </si>
+  <si>
+    <t>C16581</t>
+  </si>
+  <si>
+    <t>C8492</t>
+  </si>
+  <si>
+    <t>https://jlcpcb.com/partdetail/Myoung-BH_18650B1BA002/C2988620</t>
+  </si>
+  <si>
+    <t>C2988620</t>
   </si>
 </sst>
 </file>
@@ -277,7 +230,7 @@
     <numFmt numFmtId="6" formatCode="&quot;R&quot;#,##0;[Red]\-&quot;R&quot;#,##0"/>
     <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -425,6 +378,12 @@
       <color rgb="FF222222"/>
       <name val="Microsoft YaHei"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="36">
@@ -828,7 +787,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -862,6 +821,9 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="42" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1223,26 +1185,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="99" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" customWidth="1"/>
-    <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" customWidth="1"/>
-    <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" customWidth="1"/>
+    <col min="11" max="11" width="11" customWidth="1"/>
+    <col min="12" max="12" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1253,667 +1216,486 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1"/>
       <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="B2" s="3">
         <v>0</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="3">
-        <v>2</v>
+      <c r="C2" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F2" s="3">
-        <f t="shared" ref="F2:F15" si="0">E2*5</f>
-        <v>10</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H2" s="3">
-        <v>2.6200000000000001E-2</v>
+        <v>4</v>
+      </c>
+      <c r="G2" s="3">
+        <f t="shared" ref="G2:G10" si="0">F2*5</f>
+        <v>20</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="I2" s="3">
-        <f t="shared" ref="I2:I15" si="1">E2*H2</f>
-        <v>5.2400000000000002E-2</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="J2" s="3">
-        <f t="shared" ref="J2:J12" si="2">I2*5</f>
-        <v>0.26200000000000001</v>
+        <f t="shared" ref="J2:J10" si="1">F2*I2</f>
+        <v>0.35199999999999998</v>
       </c>
       <c r="K2" s="3">
-        <f t="shared" ref="K2:K12" si="3">J2+B2*3</f>
-        <v>0.26200000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" ref="K2:K7" si="2">J2*5</f>
+        <v>1.7599999999999998</v>
+      </c>
+      <c r="L2" s="3">
+        <f>K2+B2*3</f>
+        <v>1.7599999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B3" s="3">
         <v>0</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="3">
+      <c r="C3" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="3">
         <v>1</v>
       </c>
-      <c r="F3" s="3">
+      <c r="G3" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="3">
-        <v>4.0000000000000001E-3</v>
+      <c r="H3" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="I3" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J3" s="3">
+        <f t="shared" si="1"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="K3" s="3">
+        <f t="shared" si="2"/>
+        <v>0.03</v>
+      </c>
+      <c r="L3" s="3">
+        <f>K3+B3*3</f>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1.3299999999999999E-2</v>
+      </c>
+      <c r="J4" s="3">
+        <f t="shared" si="1"/>
+        <v>1.3299999999999999E-2</v>
+      </c>
+      <c r="K4" s="3">
+        <f t="shared" si="2"/>
+        <v>6.6500000000000004E-2</v>
+      </c>
+      <c r="L4" s="3">
+        <f>K4+B4*3</f>
+        <v>6.6500000000000004E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="9">
+        <v>3</v>
+      </c>
+      <c r="F5" s="3">
+        <v>5</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1.3333329999999999E-3</v>
+      </c>
+      <c r="J5" s="3">
+        <f t="shared" si="1"/>
+        <v>6.6666649999999996E-3</v>
+      </c>
+      <c r="K5" s="3">
+        <f t="shared" si="2"/>
+        <v>3.3333324999999997E-2</v>
+      </c>
+      <c r="L5" s="3">
+        <f>K5+B5*3</f>
+        <v>3.3333324999999997E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="3">
+        <v>4</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="3">
+        <v>2</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="3">
+        <v>2E-3</v>
+      </c>
+      <c r="J7" s="3">
         <f t="shared" si="1"/>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="J3" s="3">
+      <c r="K7" s="3">
         <f t="shared" si="2"/>
         <v>0.02</v>
       </c>
-      <c r="K3" s="3">
-        <f t="shared" si="3"/>
+      <c r="L7" s="3">
+        <f>K7+B7*3</f>
         <v>0.02</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="3">
+    <row r="8" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="3">
         <v>0</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="3">
-        <v>3</v>
-      </c>
-      <c r="F4" s="3">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="3">
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="I4" s="3">
-        <f t="shared" si="1"/>
-        <v>0.26400000000000001</v>
-      </c>
-      <c r="J4" s="3">
-        <f t="shared" si="2"/>
-        <v>1.32</v>
-      </c>
-      <c r="K4" s="3">
-        <f t="shared" si="3"/>
-        <v>1.32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="3">
+      <c r="C8" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="3">
         <v>1</v>
       </c>
-      <c r="F5" s="3">
+      <c r="G8" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="3">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="I5" s="3">
+      <c r="H8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.20269999999999999</v>
+      </c>
+      <c r="J8" s="3">
         <f t="shared" si="1"/>
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="J5" s="3">
-        <f t="shared" si="2"/>
-        <v>0.03</v>
-      </c>
-      <c r="K5" s="3">
-        <f t="shared" si="3"/>
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="8" t="s">
+        <v>0.20269999999999999</v>
+      </c>
+      <c r="K8" s="3">
+        <f>J8*5</f>
+        <v>1.0135000000000001</v>
+      </c>
+      <c r="L8" s="3">
+        <f>K8+B8*3</f>
+        <v>1.0135000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="3">
         <v>1</v>
       </c>
-      <c r="F6" s="3">
+      <c r="G9" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H6" s="3">
-        <v>1.3299999999999999E-2</v>
-      </c>
-      <c r="I6" s="3">
+      <c r="H9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="16">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="J9" s="3">
         <f t="shared" si="1"/>
-        <v>1.3299999999999999E-2</v>
-      </c>
-      <c r="J6" s="3">
-        <f t="shared" si="2"/>
-        <v>6.6500000000000004E-2</v>
-      </c>
-      <c r="K6" s="3">
-        <f t="shared" si="3"/>
-        <v>6.6500000000000004E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" s="3">
-        <v>2</v>
-      </c>
-      <c r="F7" s="3">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0.16200000000000001</v>
-      </c>
-      <c r="I7" s="3">
-        <f t="shared" si="1"/>
-        <v>0.32400000000000001</v>
-      </c>
-      <c r="J7" s="3">
-        <f t="shared" si="2"/>
-        <v>1.62</v>
-      </c>
-      <c r="K7" s="3">
-        <f t="shared" si="3"/>
-        <v>1.62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E8" s="3">
-        <v>5</v>
-      </c>
-      <c r="F8" s="3">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="3">
-        <v>1.3333329999999999E-3</v>
-      </c>
-      <c r="I8" s="3">
-        <f t="shared" si="1"/>
-        <v>6.6666649999999996E-3</v>
-      </c>
-      <c r="J8" s="3">
-        <f t="shared" si="2"/>
-        <v>3.3333324999999997E-2</v>
-      </c>
-      <c r="K8" s="3">
-        <f t="shared" si="3"/>
-        <v>3.3333324999999997E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="3">
-        <v>0</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="3">
-        <v>5</v>
-      </c>
-      <c r="F9" s="3">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="3">
-        <v>2E-3</v>
-      </c>
-      <c r="I9" s="3">
-        <f t="shared" si="1"/>
-        <v>0.01</v>
-      </c>
-      <c r="J9" s="3">
-        <f t="shared" si="2"/>
-        <v>0.05</v>
+        <v>0.47799999999999998</v>
       </c>
       <c r="K9" s="3">
-        <f t="shared" si="3"/>
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>45</v>
+        <f>J9*5</f>
+        <v>2.3899999999999997</v>
+      </c>
+      <c r="L9" s="3">
+        <f>K9+B9*3</f>
+        <v>5.39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>50</v>
       </c>
       <c r="B10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="3">
+        <v>60</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="3">
         <v>1</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0.28000000000000003</v>
+      <c r="H10" s="17" t="s">
+        <v>52</v>
       </c>
       <c r="I10" s="3">
+        <v>1.3102</v>
+      </c>
+      <c r="J10" s="3">
         <f t="shared" si="1"/>
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="J10" s="3">
-        <f t="shared" si="2"/>
-        <v>1.4000000000000001</v>
+        <v>1.3102</v>
       </c>
       <c r="K10" s="3">
-        <f t="shared" si="3"/>
-        <v>1.4000000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="3">
-        <v>1</v>
-      </c>
-      <c r="C11" s="7" t="s">
+        <f>J10*5</f>
+        <v>6.5510000000000002</v>
+      </c>
+      <c r="L10" s="3">
+        <f>K10+B10*3</f>
+        <v>9.5510000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="L11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="8" t="s">
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="14"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="11">
+        <v>4.7300000000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="11">
+        <v>23.63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="14"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H11" s="3">
-        <v>0.14599999999999999</v>
-      </c>
-      <c r="I11" s="3">
-        <f t="shared" si="1"/>
-        <v>0.14599999999999999</v>
-      </c>
-      <c r="J11" s="3">
-        <f t="shared" si="2"/>
-        <v>0.73</v>
-      </c>
-      <c r="K11" s="3">
-        <f t="shared" si="3"/>
-        <v>3.73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="3">
-        <v>1</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0.21</v>
-      </c>
-      <c r="I12" s="3">
-        <f>E12*H12</f>
-        <v>0.21</v>
-      </c>
-      <c r="J12" s="3">
-        <f t="shared" si="2"/>
-        <v>1.05</v>
-      </c>
-      <c r="K12" s="3">
-        <f t="shared" si="3"/>
-        <v>4.05</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="3">
-        <v>0</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="3">
-        <v>1</v>
-      </c>
-      <c r="F13" s="3">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H13" s="3">
-        <v>0.20269999999999999</v>
-      </c>
-      <c r="I13" s="3">
-        <f t="shared" si="1"/>
-        <v>0.20269999999999999</v>
-      </c>
-      <c r="J13" s="3">
-        <f>I13*5</f>
-        <v>1.0135000000000001</v>
-      </c>
-      <c r="K13" s="3">
-        <f>J13+B13*3</f>
-        <v>1.0135000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B14" s="3">
-        <v>0</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-      <c r="F14" s="3">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="H14" s="3">
-        <v>2.4199999999999999E-2</v>
-      </c>
-      <c r="I14" s="3">
-        <f t="shared" si="1"/>
-        <v>2.4199999999999999E-2</v>
-      </c>
-      <c r="J14" s="3">
-        <f>I14*5</f>
-        <v>0.121</v>
-      </c>
-      <c r="K14" s="3">
-        <f>J14+B14*3</f>
-        <v>0.121</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="B15" s="3">
-        <v>0</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="H15" s="3">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="I15" s="3">
-        <f t="shared" si="1"/>
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="J15" s="3">
-        <f>I15*5</f>
-        <v>0.10999999999999999</v>
-      </c>
-      <c r="K15" s="3">
-        <f>J15+B15*3</f>
-        <v>0.10999999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="K16" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="14"/>
+      <c r="B18" s="11">
+        <v>19.63</v>
+      </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="11">
+        <f>SUM(L2:L10)</f>
+        <v>17.864333324999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="11">
-        <v>4.7300000000000004</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="B20" s="11">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="11">
-        <v>23.63</v>
+      <c r="B21" s="11">
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="14"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="11">
-        <v>19.63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="11">
-        <f>SUM(K2:K15)</f>
-        <v>13.826333325000002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="11">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" s="11">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" s="12">
-        <f>SUM(B23:B26)</f>
-        <v>69.456333325000003</v>
+      <c r="B22" s="12">
+        <f>SUM(B18:B21)</f>
+        <v>73.494333324999999</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A17:B17"/>
   </mergeCells>
+  <phoneticPr fontId="20" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C10" r:id="rId1" xr:uid="{02EB1EE9-5DD7-4338-94CB-E733225E16E6}"/>
-    <hyperlink ref="C11" r:id="rId2" xr:uid="{B048310C-388F-4689-BBFF-76B27BC3F75C}"/>
-    <hyperlink ref="C2" r:id="rId3" xr:uid="{F7BEA577-E20E-4B80-AD09-29129CF305B4}"/>
-    <hyperlink ref="C6" r:id="rId4" xr:uid="{C88721EF-9F3E-4560-BB16-985292A0E203}"/>
-    <hyperlink ref="C7" r:id="rId5" xr:uid="{90D26303-0256-43CB-BD34-5BA2FAD1F211}"/>
-    <hyperlink ref="C15" r:id="rId6" xr:uid="{2D226B48-6A96-4AAF-9ADF-E027773F8C3F}"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{C88721EF-9F3E-4560-BB16-985292A0E203}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{E7E8C33C-8978-4E1A-9FC1-29FDBBD56B9C}"/>
+    <hyperlink ref="C9" r:id="rId3" xr:uid="{16CD7FE4-D3E3-4D79-A453-8D4840C128F5}"/>
+    <hyperlink ref="C2" r:id="rId4" xr:uid="{90947F28-98B3-4890-9C19-1486EDC2FE93}"/>
+    <hyperlink ref="C3" r:id="rId5" xr:uid="{499D0D3E-C059-4EF7-B72D-819AD97FAA11}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{AE7B04E2-2519-4928-997F-3C0C26406FB4}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{81F679C9-1322-4BD2-BD9B-128C2966F9BB}"/>
+    <hyperlink ref="C10" r:id="rId8" xr:uid="{3E0B292A-7A63-482E-B69C-5DEE05D7F009}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId7"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId9"/>
 </worksheet>
 </file>